--- a/docs/envibot/Clientes.xlsx
+++ b/docs/envibot/Clientes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,42 +433,13 @@
       <c r="J1" t="str">
         <v>Estado</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="str">
-        <v>CINTURILLA_CHALECO</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Yazmin M</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Calle 103, Bogota</v>
-      </c>
-      <c r="E2" t="str">
-        <v>3183390467</v>
-      </c>
-      <c r="F2" t="str">
-        <v>S</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Negro</v>
-      </c>
-      <c r="H2" t="str">
-        <v>573183390467</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2025-02-15 01:31:29</v>
-      </c>
-      <c r="J2" t="str">
-        <v>PENDIENTE_COMPRA_DROPI</v>
+      <c r="K1" t="str">
+        <v># de guia</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
   </ignoredErrors>
 </worksheet>
 </file>